--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H2">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I2">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J2">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N2">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O2">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P2">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q2">
-        <v>153.9429486521225</v>
+        <v>217.0085946276237</v>
       </c>
       <c r="R2">
-        <v>615.77179460849</v>
+        <v>868.0343785104949</v>
       </c>
       <c r="S2">
-        <v>0.05613773964735827</v>
+        <v>0.07068168072936043</v>
       </c>
       <c r="T2">
-        <v>0.03332687168283032</v>
+        <v>0.04265275622063131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H3">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I3">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J3">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P3">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q3">
-        <v>27.20834143652733</v>
+        <v>49.07933017643666</v>
       </c>
       <c r="R3">
-        <v>163.250048619164</v>
+        <v>294.4759810586199</v>
       </c>
       <c r="S3">
-        <v>0.009921953562496883</v>
+        <v>0.01598558597135019</v>
       </c>
       <c r="T3">
-        <v>0.008835437852436635</v>
+        <v>0.01446971749491913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H4">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I4">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J4">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N4">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O4">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P4">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q4">
-        <v>62.977784584182</v>
+        <v>105.4317769237417</v>
       </c>
       <c r="R4">
-        <v>377.8667075050919</v>
+        <v>632.5906615424499</v>
       </c>
       <c r="S4">
-        <v>0.02296584874792495</v>
+        <v>0.03434009241910669</v>
       </c>
       <c r="T4">
-        <v>0.02045094527631381</v>
+        <v>0.0310837173528972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H5">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I5">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J5">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N5">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O5">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P5">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q5">
-        <v>73.07860905609876</v>
+        <v>111.375542391965</v>
       </c>
       <c r="R5">
-        <v>292.314436224395</v>
+        <v>445.5021695678599</v>
       </c>
       <c r="S5">
-        <v>0.02664927471444654</v>
+        <v>0.03627603110336045</v>
       </c>
       <c r="T5">
-        <v>0.01582067543915884</v>
+        <v>0.02189071758534105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H6">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I6">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J6">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N6">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O6">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P6">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q6">
-        <v>75.32396411083916</v>
+        <v>231.4857135283233</v>
       </c>
       <c r="R6">
-        <v>451.943784665035</v>
+        <v>1388.91428116994</v>
       </c>
       <c r="S6">
-        <v>0.02746807907400016</v>
+        <v>0.07539701054279992</v>
       </c>
       <c r="T6">
-        <v>0.02446015334132138</v>
+        <v>0.068247322586174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H7">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I7">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J7">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N7">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O7">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P7">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q7">
-        <v>81.19761212772082</v>
+        <v>77.85881194812916</v>
       </c>
       <c r="R7">
-        <v>487.185672766325</v>
+        <v>467.152871688775</v>
       </c>
       <c r="S7">
-        <v>0.02960999805138087</v>
+        <v>0.0253593259636937</v>
       </c>
       <c r="T7">
-        <v>0.02636751885058299</v>
+        <v>0.0229545719008274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>24.148849</v>
       </c>
       <c r="I8">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J8">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N8">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O8">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P8">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q8">
-        <v>163.4499952774783</v>
+        <v>127.7336986885762</v>
       </c>
       <c r="R8">
-        <v>980.69997166487</v>
+        <v>766.4021921314569</v>
       </c>
       <c r="S8">
-        <v>0.05960463509753948</v>
+        <v>0.04160403197199918</v>
       </c>
       <c r="T8">
-        <v>0.05307755633044357</v>
+        <v>0.03765883780321409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>24.148849</v>
       </c>
       <c r="I9">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J9">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P9">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q9">
         <v>28.88864555503689</v>
@@ -1013,10 +1013,10 @@
         <v>259.997809995332</v>
       </c>
       <c r="S9">
-        <v>0.01053470312952275</v>
+        <v>0.009409295633329977</v>
       </c>
       <c r="T9">
-        <v>0.01407163128840695</v>
+        <v>0.01277555760712862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>24.148849</v>
       </c>
       <c r="I10">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J10">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N10">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O10">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P10">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q10">
-        <v>66.867100331644</v>
+        <v>62.05832929745222</v>
       </c>
       <c r="R10">
-        <v>601.8039029847959</v>
+        <v>558.5249636770699</v>
       </c>
       <c r="S10">
-        <v>0.02438414946743882</v>
+        <v>0.02021296449353474</v>
       </c>
       <c r="T10">
-        <v>0.03257089985057305</v>
+        <v>0.02744433827578753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>24.148849</v>
       </c>
       <c r="I11">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J11">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N11">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O11">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P11">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q11">
-        <v>77.59172089198083</v>
+        <v>65.55689647953267</v>
       </c>
       <c r="R11">
-        <v>465.550325351885</v>
+        <v>393.341378877196</v>
       </c>
       <c r="S11">
-        <v>0.02829505257865186</v>
+        <v>0.02135247976940829</v>
       </c>
       <c r="T11">
-        <v>0.02519656809673605</v>
+        <v>0.01932768374165629</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>24.148849</v>
       </c>
       <c r="I12">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J12">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N12">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O12">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P12">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q12">
-        <v>79.9757422213561</v>
+        <v>136.2550936439871</v>
       </c>
       <c r="R12">
-        <v>719.7816799922049</v>
+        <v>1226.295842795884</v>
       </c>
       <c r="S12">
-        <v>0.02916442379619722</v>
+        <v>0.04437952811601444</v>
       </c>
       <c r="T12">
-        <v>0.03895610662713767</v>
+        <v>0.06025671209808433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>24.148849</v>
       </c>
       <c r="I13">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J13">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N13">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O13">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P13">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q13">
-        <v>86.21212881149721</v>
+        <v>45.82857210194056</v>
       </c>
       <c r="R13">
-        <v>775.9091593034749</v>
+        <v>412.457148917465</v>
       </c>
       <c r="S13">
-        <v>0.03143862115179523</v>
+        <v>0.01492678438450891</v>
       </c>
       <c r="T13">
-        <v>0.04199384449896845</v>
+        <v>0.0202669786586345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H14">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I14">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J14">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N14">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O14">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P14">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q14">
-        <v>153.769612330625</v>
+        <v>128.688234906805</v>
       </c>
       <c r="R14">
-        <v>922.61767398375</v>
+        <v>772.12940944083</v>
       </c>
       <c r="S14">
-        <v>0.05607452980648634</v>
+        <v>0.04191493313394271</v>
       </c>
       <c r="T14">
-        <v>0.04993401955462654</v>
+        <v>0.03794025707619087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H15">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I15">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J15">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P15">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q15">
-        <v>27.17770545183333</v>
+        <v>29.10452639745334</v>
       </c>
       <c r="R15">
-        <v>244.5993490665</v>
+        <v>261.94073757708</v>
       </c>
       <c r="S15">
-        <v>0.00991078166441613</v>
+        <v>0.009479609994866892</v>
       </c>
       <c r="T15">
-        <v>0.01323823402016322</v>
+        <v>0.01287102757761624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H16">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I16">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J16">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N16">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O16">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P16">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q16">
-        <v>62.9068730055</v>
+        <v>62.52208258703334</v>
       </c>
       <c r="R16">
-        <v>566.1618570494999</v>
+        <v>562.6987432833</v>
       </c>
       <c r="S16">
-        <v>0.02293998971523207</v>
+        <v>0.02036401317438358</v>
       </c>
       <c r="T16">
-        <v>0.03064187695313036</v>
+        <v>0.02764942601017964</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H17">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I17">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J17">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N17">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O17">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P17">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q17">
-        <v>72.9963241746875</v>
+        <v>66.04679407654001</v>
       </c>
       <c r="R17">
-        <v>437.977945048125</v>
+        <v>396.2807644592401</v>
       </c>
       <c r="S17">
-        <v>0.02661926822639351</v>
+        <v>0.02151204388990395</v>
       </c>
       <c r="T17">
-        <v>0.02370429256801059</v>
+        <v>0.01947211684220296</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H18">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I18">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J18">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N18">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O18">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P18">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q18">
-        <v>75.23915100979166</v>
+        <v>137.2733090651067</v>
       </c>
       <c r="R18">
-        <v>677.152359088125</v>
+        <v>1235.45978158596</v>
       </c>
       <c r="S18">
-        <v>0.02743715063052823</v>
+        <v>0.04471117017578069</v>
       </c>
       <c r="T18">
-        <v>0.03664891763255282</v>
+        <v>0.0607070021521541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H19">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I19">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J19">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N19">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O19">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P19">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q19">
-        <v>81.10618543020831</v>
+        <v>46.17104266648334</v>
       </c>
       <c r="R19">
-        <v>729.9556688718749</v>
+        <v>415.5393839983501</v>
       </c>
       <c r="S19">
-        <v>0.0295766578549853</v>
+        <v>0.0150383301744061</v>
       </c>
       <c r="T19">
-        <v>0.03950674442000846</v>
+        <v>0.02041843097984931</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H20">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I20">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J20">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N20">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O20">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P20">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q20">
-        <v>137.5243552175325</v>
+        <v>149.8743704689227</v>
       </c>
       <c r="R20">
-        <v>550.09742087013</v>
+        <v>599.4974818756909</v>
       </c>
       <c r="S20">
-        <v>0.05015043895137326</v>
+        <v>0.04881545093260476</v>
       </c>
       <c r="T20">
-        <v>0.02977243569600478</v>
+        <v>0.02945761202822802</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H21">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I21">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J21">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P21">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q21">
-        <v>24.306469671778</v>
+        <v>33.89604787705267</v>
       </c>
       <c r="R21">
-        <v>145.838818030668</v>
+        <v>203.376287262316</v>
       </c>
       <c r="S21">
-        <v>0.008863739964239475</v>
+        <v>0.01104025229113197</v>
       </c>
       <c r="T21">
-        <v>0.007893105233853628</v>
+        <v>0.009993335997292843</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H22">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I22">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J22">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N22">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O22">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P22">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q22">
-        <v>56.260967415534</v>
+        <v>72.81518605740166</v>
       </c>
       <c r="R22">
-        <v>337.565804493204</v>
+        <v>436.8911163444099</v>
       </c>
       <c r="S22">
-        <v>0.02051645475635892</v>
+        <v>0.02371657095881262</v>
       </c>
       <c r="T22">
-        <v>0.01826977518190679</v>
+        <v>0.02146759476551342</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H23">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I23">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J23">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N23">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O23">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P23">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q23">
-        <v>65.28450103515375</v>
+        <v>76.92017604313699</v>
       </c>
       <c r="R23">
-        <v>261.138004140615</v>
+        <v>307.680704172548</v>
       </c>
       <c r="S23">
-        <v>0.02380702951455791</v>
+        <v>0.02505360367895371</v>
       </c>
       <c r="T23">
-        <v>0.01413334100669232</v>
+        <v>0.01511856027106097</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H24">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I24">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J24">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N24">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O24">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P24">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q24">
-        <v>67.2903805433825</v>
+        <v>159.8728181579153</v>
       </c>
       <c r="R24">
-        <v>403.742283260295</v>
+        <v>959.2369089474919</v>
       </c>
       <c r="S24">
-        <v>0.0245385053150597</v>
+        <v>0.0520720366386007</v>
       </c>
       <c r="T24">
-        <v>0.02185138615467735</v>
+        <v>0.04713419082015612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.772825500000001</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H25">
-        <v>13.545651</v>
+        <v>18.889787</v>
       </c>
       <c r="I25">
-        <v>0.1543281490935071</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J25">
-        <v>0.1154753672445298</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N25">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O25">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P25">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q25">
-        <v>72.5375819473375</v>
+        <v>53.77225010929916</v>
       </c>
       <c r="R25">
-        <v>435.225491684025</v>
+        <v>322.633500655795</v>
       </c>
       <c r="S25">
-        <v>0.02645198059191784</v>
+        <v>0.01751411284353342</v>
       </c>
       <c r="T25">
-        <v>0.02355532397139493</v>
+        <v>0.01585329843236634</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H26">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I26">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J26">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N26">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O26">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P26">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q26">
-        <v>163.139540548005</v>
+        <v>109.804581232689</v>
       </c>
       <c r="R26">
-        <v>978.83724328803</v>
+        <v>658.827487396134</v>
       </c>
       <c r="S26">
-        <v>0.05949142285282115</v>
+        <v>0.03576435470967334</v>
       </c>
       <c r="T26">
-        <v>0.05297674153161962</v>
+        <v>0.03237292082783402</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H27">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I27">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J27">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.766468</v>
       </c>
       <c r="O27">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P27">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q27">
-        <v>28.833774849012</v>
+        <v>24.833741292376</v>
       </c>
       <c r="R27">
-        <v>259.503973641108</v>
+        <v>223.503671631384</v>
       </c>
       <c r="S27">
-        <v>0.01051469365564907</v>
+        <v>0.008088576290516278</v>
       </c>
       <c r="T27">
-        <v>0.01404490382061184</v>
+        <v>0.01098233878347964</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H28">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I28">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J28">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N28">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O28">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P28">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q28">
-        <v>66.74009385783599</v>
+        <v>53.34762032626</v>
       </c>
       <c r="R28">
-        <v>600.660844720524</v>
+        <v>480.12858293634</v>
       </c>
       <c r="S28">
-        <v>0.0243378345408859</v>
+        <v>0.01737580704599367</v>
       </c>
       <c r="T28">
-        <v>0.03250903512011132</v>
+        <v>0.02359216168106328</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H29">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I29">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J29">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N29">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O29">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P29">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q29">
-        <v>77.4443442176775</v>
+        <v>56.355117238092</v>
       </c>
       <c r="R29">
-        <v>464.666065306065</v>
+        <v>338.130703428552</v>
       </c>
       <c r="S29">
-        <v>0.02824130933516735</v>
+        <v>0.01835537625098952</v>
       </c>
       <c r="T29">
-        <v>0.02514871007313165</v>
+        <v>0.0166147871801995</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H30">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I30">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J30">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N30">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O30">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P30">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q30">
-        <v>79.82383736890498</v>
+        <v>117.129885472712</v>
       </c>
       <c r="R30">
-        <v>718.414536320145</v>
+        <v>1054.168969254408</v>
       </c>
       <c r="S30">
-        <v>0.02910902928067874</v>
+        <v>0.0381502731864378</v>
       </c>
       <c r="T30">
-        <v>0.03888211392053813</v>
+        <v>0.05179888397751844</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.034326999999999</v>
+        <v>6.919746</v>
       </c>
       <c r="H31">
-        <v>24.102981</v>
+        <v>20.759238</v>
       </c>
       <c r="I31">
-        <v>0.1830731967215144</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J31">
-        <v>0.205475586419798</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N31">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O31">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P31">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q31">
-        <v>86.04837864997498</v>
+        <v>39.39592464487001</v>
       </c>
       <c r="R31">
-        <v>774.4354078497749</v>
+        <v>354.56332180383</v>
       </c>
       <c r="S31">
-        <v>0.03137890705631223</v>
+        <v>0.01283161237261055</v>
       </c>
       <c r="T31">
-        <v>0.04191408195378549</v>
+        <v>0.01742223960717608</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H32">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I32">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J32">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N32">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O32">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P32">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q32">
-        <v>119.2900165207933</v>
+        <v>107.8796087631383</v>
       </c>
       <c r="R32">
-        <v>715.74009912476</v>
+        <v>647.27765257883</v>
       </c>
       <c r="S32">
-        <v>0.04350099792557815</v>
+        <v>0.03513737359982808</v>
       </c>
       <c r="T32">
-        <v>0.03873736772395234</v>
+        <v>0.03180539458573246</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H33">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I33">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J33">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.766468</v>
       </c>
       <c r="O33">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P33">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q33">
-        <v>21.08367760839289</v>
+        <v>24.39838360723111</v>
       </c>
       <c r="R33">
-        <v>189.753098475536</v>
+        <v>219.58545246508</v>
       </c>
       <c r="S33">
-        <v>0.007688497685356495</v>
+        <v>0.007946776317306519</v>
       </c>
       <c r="T33">
-        <v>0.01026983895606066</v>
+        <v>0.01078980856686985</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H34">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I34">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J34">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N34">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O34">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P34">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q34">
-        <v>48.801332112112</v>
+        <v>52.41238885147778</v>
       </c>
       <c r="R34">
-        <v>439.211989009008</v>
+        <v>471.7114996633</v>
       </c>
       <c r="S34">
-        <v>0.0177961803417505</v>
+        <v>0.01707119361525819</v>
       </c>
       <c r="T34">
-        <v>0.0237710816367783</v>
+        <v>0.02317856999642312</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H35">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I35">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J35">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N35">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O35">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P35">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q35">
-        <v>56.62843643016334</v>
+        <v>55.36716165387334</v>
       </c>
       <c r="R35">
-        <v>339.7706185809801</v>
+        <v>332.2029699232401</v>
       </c>
       <c r="S35">
-        <v>0.02065045816510452</v>
+        <v>0.018033590096398</v>
       </c>
       <c r="T35">
-        <v>0.01838910438280747</v>
+        <v>0.01632351510803021</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H36">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I36">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J36">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N36">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O36">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P36">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q36">
-        <v>58.3683566013711</v>
+        <v>115.0764938713289</v>
       </c>
       <c r="R36">
-        <v>525.31520941234</v>
+        <v>1035.68844484196</v>
       </c>
       <c r="S36">
-        <v>0.02128494767198784</v>
+        <v>0.03748146479278704</v>
       </c>
       <c r="T36">
-        <v>0.02843117000552986</v>
+        <v>0.0508908032354329</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.874817333333334</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H37">
-        <v>17.624452</v>
+        <v>20.39531</v>
       </c>
       <c r="I37">
-        <v>0.1338657972681839</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J37">
-        <v>0.1502467520522703</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N37">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O37">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P37">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q37">
-        <v>62.91983216492222</v>
+        <v>38.70527886759445</v>
       </c>
       <c r="R37">
-        <v>566.2784894843001</v>
+        <v>348.3475098083501</v>
       </c>
       <c r="S37">
-        <v>0.02294471547840644</v>
+        <v>0.01260666273681277</v>
       </c>
       <c r="T37">
-        <v>0.0306481893471417</v>
+        <v>0.01711681217213437</v>
       </c>
     </row>
   </sheetData>
